--- a/data/trans_dic/P79A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P79A_R-Estudios-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.05536369231886375</v>
+        <v>0.05536369231886376</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.02970645362001648</v>
+        <v>0.02970645362001649</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.04030463586770758</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03673113681755734</v>
+        <v>0.03806473152710739</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02093469022981742</v>
+        <v>0.02025020780268132</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03068027467729999</v>
+        <v>0.03053438234543422</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0851245952676092</v>
+        <v>0.0838846921899515</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04160648885949567</v>
+        <v>0.04053945592424962</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0541996597459568</v>
+        <v>0.05327344921125442</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.02284904825170116</v>
+        <v>0.02284904825170115</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.02475270552701513</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01614953501578778</v>
+        <v>0.01527504457597731</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0182850928541913</v>
+        <v>0.01834242487248191</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01875755830171405</v>
+        <v>0.01909398312864823</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03267036903369253</v>
+        <v>0.03226849087675539</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03333380268622239</v>
+        <v>0.03406121839297509</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02991448803970065</v>
+        <v>0.02921844130810174</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.003324628030615704</v>
+        <v>0.003324628030615703</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.008316685475782773</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.005860846567754921</v>
+        <v>0.00586084656775492</v>
       </c>
     </row>
     <row r="11">
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003262907088755337</v>
+        <v>0.003262221918191909</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002961325166189512</v>
+        <v>0.002838794904724869</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01168259933663568</v>
+        <v>0.01101762924435926</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01755267508101556</v>
+        <v>0.01861439450952354</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01145278764540612</v>
+        <v>0.0114215400421004</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.018843884354177</v>
+        <v>0.01846571903945555</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01817506066612754</v>
+        <v>0.01815454789297146</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01912930976880275</v>
+        <v>0.01942931628184943</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03192137870212695</v>
+        <v>0.03102999913238183</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02860432111956215</v>
+        <v>0.02806290028069345</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02739498333795063</v>
+        <v>0.02809083018876</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>21250</v>
+        <v>22022</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17209</v>
+        <v>16646</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>42970</v>
+        <v>42765</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>49247</v>
+        <v>48530</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34202</v>
+        <v>33325</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>75910</v>
+        <v>74613</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>36023</v>
+        <v>34072</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>39704</v>
+        <v>39829</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>82570</v>
+        <v>84051</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>72873</v>
+        <v>71977</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>72381</v>
+        <v>73960</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>131682</v>
+        <v>128618</v>
       </c>
     </row>
     <row r="12">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4283</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8313</v>
+        <v>7840</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12899</v>
+        <v>13679</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16566</v>
+        <v>16521</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>66343</v>
+        <v>65012</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>67762</v>
+        <v>67686</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>138668</v>
+        <v>140843</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>112385</v>
+        <v>109247</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>106646</v>
+        <v>104627</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>198586</v>
+        <v>203630</v>
       </c>
     </row>
     <row r="20">
